--- a/Docs/Tablas Reto 3.xlsx
+++ b/Docs/Tablas Reto 3.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fda83ec54878078/Documentos/Clases 2021-1/EDA/Modulo 3/Reto3-202110/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BF2FEA5-DBBF-4D23-B0D1-99FDC0274D26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{9BF2FEA5-DBBF-4D23-B0D1-99FDC0274D26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2CDAB4DA-4C39-40BE-8656-F1CFEB2C38F1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{DAC63364-2BBF-4E9E-936F-E53BD0549F3A}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="15375" windowHeight="8325" xr2:uid="{DAC63364-2BBF-4E9E-936F-E53BD0549F3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>Requerimiento</t>
   </si>
@@ -33,13 +34,19 @@
     <t>Carga</t>
   </si>
   <si>
-    <t>Promedio</t>
-  </si>
-  <si>
     <t>Tiempo [ms]</t>
   </si>
   <si>
     <t>Memoria [kb]</t>
+  </si>
+  <si>
+    <t>PROMEDIO</t>
+  </si>
+  <si>
+    <t>210658.74</t>
+  </si>
+  <si>
+    <t>190246.5</t>
   </si>
 </sst>
 </file>
@@ -63,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,14 +78,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,118 +420,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EFA1DE-2305-41F2-88B7-CEFCC0A71A84}">
-  <dimension ref="B1:I8"/>
+  <dimension ref="B2:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="10" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C1" s="1">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
         <v>3</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <f>AVERAGE(D4,F4,H4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f>AVERAGE(D5,F5,H5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" ref="J6:J9" si="0">AVERAGE(D6,F6,H6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" t="e">
-        <f>AVERAGE(C3:H3)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="e">
-        <f t="shared" ref="I4:I8" si="0">AVERAGE(C4:H4)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="I5" t="e">
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <f>AVERAGE(D8,F8,H8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="I6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="I7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="I8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+  <mergeCells count="4">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972848F8-1B4A-47A8-B35C-00B584DDBF35}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>